--- a/v0.2/model_files/20250320/SPEC_1/summary_10combi.xlsx
+++ b/v0.2/model_files/20250320/SPEC_1/summary_10combi.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SEN_Train</t>
+          <t>SEN_train</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SPEC_Train</t>
+          <t>SPEC_train</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
